--- a/amsterdam_painter_data_fem.xlsx
+++ b/amsterdam_painter_data_fem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracegao/Desktop/BassConnections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE48DA7-9EA3-D34B-A4BD-A0FAE7DBE4C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DD733A-D14F-F745-B05B-474027A32510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,13 +712,10 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I34"/>
+      <selection sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
